--- a/loaded_influencer_data/baeribir/baeribir_video.xlsx
+++ b/loaded_influencer_data/baeribir/baeribir_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7457570277887724805</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8566</v>
+        <v>9903</v>
       </c>
       <c r="C2" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
@@ -524,29 +524,27 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Replying to @Dina REEDLE shot 100 after 6 months
-#reedleshot100 #vtcosmetics
-#koreanskincare</t>
+          <t>6개월 만에 리들 샷 100에 답장 @Dina #reedleshot100 #vtcosmetics #koreanskincare #largepores</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.447583469530703</v>
+        <v>1.403615066141573</v>
       </c>
       <c r="I2" t="n">
-        <v>1.307494746672893</v>
+        <v>1.282439664748056</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.14008872285781</v>
+        <v>0.1211754013935171</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3618958673826757</v>
+        <v>0.3534282540644249</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -560,16 +558,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7454127021539495173</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="C3" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
         <v>12</v>
@@ -578,27 +576,27 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dr. Jart+ CtrI-A Teatreement Soothing Spot before and after #drjart #drjartteatreatment #spottreatment</t>
+          <t>Dr. Jart+ CtrI-A Teatreement Soothing Spot before and after #drjart #drjartteatreatment #spottreatment #blemishes #pimples #skincaretips #skincareproductsmusthave #pimplepatch</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.7919463087248323</v>
+        <v>0.7756410256410257</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7114093959731543</v>
+        <v>0.6987179487179487</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08053691275167785</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2147651006711409</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,13 +610,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7464498702883884294</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="C4" t="n">
         <v>48</v>
@@ -634,25 +632,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>It is Glacier Water Hyaluronic Acid Serum from
-@Mixsoon US Official
-#koreanskincare #glassskin</t>
+          <t>빙하 물 히알루론산 세럼입니다. @Mixsoon US Official #koreanskincare #glassskin #mixsoon</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7.703488372093023</v>
+        <v>7.539118065433854</v>
       </c>
       <c r="I4" t="n">
-        <v>6.976744186046512</v>
+        <v>6.827880512091039</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7267441860465116</v>
+        <v>0.7112375533428165</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.5689900426742532</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -666,16 +662,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@baeribir/video/7477644072685948215</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7488310255986740485</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574</v>
+        <v>412</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -684,568 +680,665 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>집에서 브로우 라미네이션 시도 / 터프한 브로우 리프트 파마 키트 ✨ @entropy.global @entropymakeup #browlamination</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7.038834951456311</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.310679611650485</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7281553398058253</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7281553398058253</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7487998654574234885</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>511</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Stylevana /stylevana 경험 ✨ 추가를 위해 15% 당신은 내 코드를 사용할 수 있습니다: INF10BAERIBIR 제품: 스킨1004톤 브라이트닝 앰플 남부진 숙면 마스크 세럼 닥터 G 레드 잡티 클리어 진정 크림 라네즈 립 마스크 믹스순 방패 핏 퓨어 선크림</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>14.87279843444227</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.13307240704501</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.73972602739726</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.565557729941291</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7477644072685948215</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>604</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2020년 이후로 Stylevana에서 스킨케어를 받고 🙂 뒤를 돌아보지 않고 15%의 추가 비용을 위해 제 코드를 사용할 수 있습니다. INF10BAERIBIR✨ 제품: 스킨1004톤 브라이트닝 앰플 남부진 숙면 마스크 세럼 닥터 G 레드 잡티 클리어 진정 크림 라네즈 립 마스크 믹스순 방패 핏 퓨어 선크림</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8.443708609271523</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.947019867549669</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4966887417218543</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.158940397350993</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7476370431520378167</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>937</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>시도 코 윤곽 해킹 ib samiraghiasi ##makeup #makeuphacks #contour</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4.909284951974386</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.695837780149413</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2134471718249733</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5336179295624333</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7476111921012346167</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1354</v>
+      </c>
+      <c r="C9" t="n">
+        <v>47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>둥근 얼굴에 다른 블러셔 윤곽 해킹 시도 / 둥근 얼굴에 블러셔 배치 #makeup #makeuphacks #contour #contouring</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3.988183161004431</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.471196454948301</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.51698670605613</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2954209748892171</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7475791611583106309</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71</v>
+      </c>
+      <c r="D10" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>getting my skincare from Stylevana since 2020 and never looked back 🙂‍↔️🫶🏻 for extra 15% u can use my code: INF10BAERIBIR ✨</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8.710801393728223</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.188153310104529</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5226480836236934</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.045296167247387</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@baeribir/video/7476370431520378167</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>927</v>
-      </c>
-      <c r="C6" t="n">
-        <v>44</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>trying nose contour hack ib samiraghiasi
-#makeup #makeuphacks #contour #</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4.962243797195254</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.746494066882416</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2157497303128371</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5393743257820928</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-02-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@baeribir/video/7476111921012346167</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1345</v>
-      </c>
-      <c r="C7" t="n">
-        <v>47</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Trying different blush contour hack on round face / blush placement on round face
-#makeup #makeuphacks</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4.014869888475837</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.494423791821561</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5204460966542751</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2230483271375465</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>빨간 부스터 리드 샷에 답장 @Dinara #reedleshot #viralskincare #koreanskincare #kbeauty @VT Cosmetics US</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3.098591549295775</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2414486921529175</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.167002012072435</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@baeribir/video/7475791611583106309</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2266</v>
-      </c>
-      <c r="C8" t="n">
-        <v>69</v>
-      </c>
-      <c r="D8" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7475440114777197879</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2833</v>
+      </c>
+      <c r="C11" t="n">
+        <v>74</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>27</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Replying to @Dinara red booster REEDLE shot
-#reedleshot #viralskincare #koreanskincare #kbeauty @VT Cosmetics US</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3.309796999117388</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.045013239187996</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.264783759929391</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.19152691968226</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@baeribir/video/7475440114777197879</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2833</v>
-      </c>
-      <c r="C9" t="n">
-        <v>74</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>one make one shot makeup trend. my face kept getting 🙃🙂😀😃😄😁😆🤪
 #makeup #makeuptrend</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>3.035651253088599</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>2.612072008471585</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.4235792446170138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>0.2117896223085069</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7475384573078015238</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" t="n">
         <v>1288</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>39</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>trying nose contour hack
 #makeup #contour #contouring #makeuphacks #nosecontour #kbeauty #blushhack</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>3.183229813664596</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>3.027950310559006</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.15527950310559</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>0.6211180124223602</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7475044059078331703</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" t="n">
         <v>2489</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>91</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>30</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>following makeup application guide for round face
 #makeup #contour #contouring #makeuphacks</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>3.656086781840096</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I13" t="n">
         <v>3.656086781840096</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1.205303334672559</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7475010749379677495</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" t="n">
         <v>679</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>30</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>trying diamond bomb highlighter on hair hack #fentybeauty #highlighter #glitterhair #makeup #hairhacks #makeuphacks</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>4.565537555228277</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>4.418262150220913</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.1472754050073638</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>0.5891016200294551</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7474986988538514694</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>523</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>21</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>🪩🪩🪩
 #makeup #highlighter #fentydiamondbomb #fentybeautyhighlighter</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>4.780114722753346</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>4.015296367112811</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.7648183556405354</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>0.3824091778202677</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7474584073759984901</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>860</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>49</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Contouring round face / round face shading natural and easy
 #contouring #makeup #roundface #kbeauty #makeuphacks</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>6.511627906976744</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>5.697674418604652</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.813953488372093</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L16" t="n">
         <v>0.5813953488372093</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7474247696132410679</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B17" t="n">
         <v>1919</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C17" t="n">
         <v>55</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>11</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>glowy natural blush / round face blush placement
 #blush #glowyskin #cleanmakeup #naturalblush</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>3.439291297550807</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>2.86607608129234</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.5732152162584679</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L17" t="n">
         <v>0.1563314226159458</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7473160930839350533</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>492</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>23</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>basic morning skincare routine for beginners
 - cleanser
@@ -1253,816 +1346,816 @@
 - serum for your concern or vitamin C (I used</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>5.487804878048781</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>4.67479674796748</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.8130081300813009</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L18" t="n">
         <v>0.8130081300813009</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7470919086503906615</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" t="n">
         <v>437</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>31</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>#koreanskincare #kbeauty</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>8.009153318077804</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>7.093821510297483</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.9153318077803204</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>0.4576659038901602</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7469803998057483526</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" t="n">
         <v>556</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C20" t="n">
         <v>29</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>no glue eyelashes/ cluster lashes
 #makeuphacks #cbeauty #kbeauty #clusterlashes #falsies #gluefreelashes</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>5.755395683453238</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>5.215827338129497</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.539568345323741</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>0.3597122302158274</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7469490949056367927</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>413</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>28</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>#hairvolume #hairstyle #haircare #hairtok</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>7.263922518159806</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I21" t="n">
         <v>6.779661016949152</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.4842615012106538</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L21" t="n">
         <v>0.2421307506053269</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7468325008717221126</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B22" t="n">
         <v>843</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>56</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>9</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>7</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>inspired by @lenkalul and @Alexandra Claudia
 #makeup #makeuptransformation #makeuphacks #beautytips</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>7.71055753262159</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I22" t="n">
         <v>6.642941874258599</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.067615658362989</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L22" t="n">
         <v>0.8303677342823249</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7468294626017905926</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>425</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>42</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>2</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>#skincare #kbeauty #skincareasmr</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>10.35294117647059</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I23" t="n">
         <v>9.882352941176469</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.4705882352941176</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L23" t="n">
         <v>0.4705882352941176</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7468049823711644933</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B24" t="n">
         <v>507</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>25</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D24" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>clay mask for large pores
 #claymask #pores #axisymugwort #glowyskin #kbeauty #skincaretips #skincare</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H24" t="n">
         <v>5.128205128205128</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I24" t="n">
         <v>4.930966469428008</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.1972386587771203</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L24" t="n">
         <v>0.1972386587771203</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467987561374420229</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B25" t="n">
         <v>588</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>31</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>trying different lip products : Fenty Beauty gloss in shade 02 Fenty Glow @Fenty Beauty
 #makeup #beautycontent</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>5.952380952380952</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I25" t="n">
         <v>5.272108843537415</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.6802721088435374</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L25" t="n">
         <v>0.3401360544217687</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467978859380477189</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
         <v>539</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C26" t="n">
         <v>34</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D26" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>3</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>skincare routine for glowy but not greasy skin ✨
 Products used:
 @Abib Cosmetics heartleaf spot toner pads</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H26" t="n">
         <v>6.679035250463822</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I26" t="n">
         <v>6.307977736549166</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.3710575139146568</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L26" t="n">
         <v>0.5565862708719851</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467942012239596805</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B27" t="n">
         <v>2063</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C27" t="n">
         <v>38</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>best lightweight &amp; blendable foundation 🙂‍↔️
 @Pat McGrath Labs
 #makeup #patmcgrathlabs</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>2.181289384391663</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>1.841977702375182</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.3393116820164809</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L27" t="n">
         <v>0.1938923897237033</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467932576674598149</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B28" t="n">
         <v>633</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C28" t="n">
         <v>37</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D28" t="n">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>6</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>best lightweight &amp; blendable foundation 🙂‍↔️
 @Pat McGrath Labs
 #makeup #patmcgrathlabs</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H28" t="n">
         <v>6.31911532385466</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I28" t="n">
         <v>5.845181674565561</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.4739336492890995</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L28" t="n">
         <v>0.9478672985781991</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467651258875202821</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B29" t="n">
         <v>613</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C29" t="n">
         <v>29</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>#makeup #skincare</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>5.220228384991843</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>4.730831973898858</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.4893964110929853</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>0.1631321370309951</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467617128837958918</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B30" t="n">
         <v>2360</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C30" t="n">
         <v>42</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D30" t="n">
         <v>7</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>3</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>trying lip products @Givenchy Beauty lip balm
 #makeup #lipbalm #lipproducts #givenchybeauty #softlips #warmtone</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H30" t="n">
         <v>2.076271186440678</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I30" t="n">
         <v>1.779661016949153</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.2966101694915254</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L30" t="n">
         <v>0.1271186440677966</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467573024980536582</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B31" t="n">
         <v>1843</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C31" t="n">
         <v>37</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D31" t="n">
         <v>7</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Pore minimizing mask from @Beauty of Joseon
 #kbeauty #glowyskin #pores #beautyofjoseon</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H31" t="n">
         <v>2.387411828540423</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I31" t="n">
         <v>2.007596310363537</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.3798155181768855</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L31" t="n">
         <v>0.2170374389582203</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467524925725740294</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B32" t="n">
         <v>616</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C32" t="n">
         <v>32</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D32" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>trying lip products 🫦💅🏻 @rom&amp;nd global @롬앤 romand tint in viral bare grape shade
 #makeup #liptint</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H32" t="n">
         <v>5.681818181818182</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I32" t="n">
         <v>5.194805194805195</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.487012987012987</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L32" t="n">
         <v>0.1623376623376623</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467464317856795910</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B33" t="n">
         <v>741</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C33" t="n">
         <v>31</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D33" t="n">
         <v>2</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Aqua fresh sunscreen from @Beauty of Joseon
 #beautyofjoseon #beautyofjoseonsunscreen</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H33" t="n">
         <v>4.453441295546559</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I33" t="n">
         <v>4.183535762483131</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.2699055330634278</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L33" t="n">
         <v>0.1349527665317139</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467267629636521222</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>413</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>32</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>4</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>skincare routine
 products used:
@@ -2070,52 +2163,52 @@
 @VVBETTER KOREA balancing pads</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H34" t="n">
         <v>8.716707021791766</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I34" t="n">
         <v>7.74818401937046</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.9685230024213075</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L34" t="n">
         <v>0.4842615012106538</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7467206721845447941</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B35" t="n">
         <v>514</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
         <v>33</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D35" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>skincare routine
 products used:
@@ -2123,52 +2216,52 @@
 @VVBETTER KOREA balancing pads</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>7.587548638132295</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>6.420233463035019</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.167315175097276</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>0.3891050583657588</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7466925092560309510</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
         <v>486</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>38</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>simple evening skincare routine
 Products:
@@ -2176,296 +2269,196 @@
 @Medik8 crystal retinal 3 serum</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H36" t="n">
         <v>8.024691358024691</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I36" t="n">
         <v>7.818930041152264</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.205761316872428</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L36" t="n">
         <v>0.6172839506172839</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7466913634443218182</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v>2485</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C37" t="n">
         <v>63</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D37" t="n">
         <v>2</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>11</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Comparison of Relief Sun vs Aqua fresh sunscreens from @Beauty of Joseon 🩵
 #beautyofjoseon</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>2.61569416498994</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>2.535211267605634</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.08048289738430583</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L37" t="n">
         <v>0.4426559356136821</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7466845500130610437</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B38" t="n">
         <v>1611</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>27</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D38" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>is it a blessing or a curse #rhode #rhodelipliner #rhodelipshape #lipliner</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>1.738050900062073</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>1.675977653631285</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.06207324643078833</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7466815706546375942</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>566</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>28</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>6</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>✨✨✨
 #hairtok #grwm #shinyhair #glossyhair #haircare</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>6.007067137809187</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>4.946996466431095</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>1.060070671378092</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L39" t="n">
         <v>0.5300353356890459</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7466804998710611205</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
         <v>485</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>30</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>7</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>#grwm #makeup</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7.628865979381444</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.185567010309279</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.443298969072165</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.4123711340206186</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@baeribir/video/7466098779221921029</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>414</v>
-      </c>
-      <c r="C39" t="n">
-        <v>40</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Which Korean skincare serums and essences to get? Guide to @Mixsoon US Official serums and essences 💫</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9.903381642512077</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9.661835748792271</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.2415458937198068</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.4830917874396135</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@baeribir/video/7466095696656092421</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>344</v>
-      </c>
-      <c r="C40" t="n">
-        <v>23</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2475,542 +2468,591 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>#grwm #makeup</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7.628865979381444</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.185567010309279</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.443298969072165</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.4123711340206186</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7466098779221921029</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>414</v>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Which Korean skincare serums and essences to get? Guide to @Mixsoon US Official serums and essences 💫</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9.903381642512077</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.661835748792271</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2415458937198068</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.4830917874396135</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@baeribir/video/7466095696656092421</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>344</v>
+      </c>
+      <c r="C42" t="n">
+        <v>23</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Centella essence / soondy centella asiatica essence from Mixsoon @Mixsoon US Official
 #mixsoon</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H42" t="n">
         <v>7.267441860465117</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I42" t="n">
         <v>6.686046511627906</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.5813953488372093</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L42" t="n">
         <v>0.5813953488372093</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7465971907339308293</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B43" t="n">
         <v>395</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C43" t="n">
         <v>30</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D43" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>How to get rid of skin texture
 Products: cleansing oil and centella cleansing foam from @Mixsoon US Official</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>7.848101265822785</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I43" t="n">
         <v>7.59493670886076</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.2531645569620253</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L43" t="n">
         <v>0.5063291139240507</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7465596416375672069</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B44" t="n">
         <v>564</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C44" t="n">
         <v>35</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D44" t="n">
         <v>2</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>1</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Master serum @Mixsoon US Official
 #mixsoon #koreanskincare #glassskin
 #TikTokMadeMeBuyIt</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H44" t="n">
         <v>6.560283687943262</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I44" t="n">
         <v>6.205673758865248</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.3546099290780142</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>0.1773049645390071</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7465386181904141574</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>1085</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C45" t="n">
         <v>40</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D45" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>4</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>viral spatula brush used by many MUAs
 #glassskin #glowyskin #spatulabrush #koreanbeautytips #kbeauty</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H45" t="n">
         <v>4.147465437788019</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I45" t="n">
         <v>3.686635944700461</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.4608294930875576</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L45" t="n">
         <v>0.3686635944700461</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7465237397718994181</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B46" t="n">
         <v>396</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C46" t="n">
         <v>40</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D46" t="n">
         <v>5</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>4</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>viral spatula brush used by many MUAs
 #glassskin #glowyskin #spatulabrush #koreanbeautytips #kbeauty</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H46" t="n">
         <v>11.36363636363636</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I46" t="n">
         <v>10.1010101010101</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>1.262626262626263</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L46" t="n">
         <v>1.01010101010101</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7464854474000174341</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B47" t="n">
         <v>990</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C47" t="n">
         <v>41</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D47" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>How to use Mixsoon Bean Essence? @Mixsoon US Official
 #mixsoon #koreanskincare #glassskin</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H47" t="n">
         <v>4.343434343434343</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I47" t="n">
         <v>4.141414141414142</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.202020202020202</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>0.303030303030303</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7464838916005448966</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B48" t="n">
         <v>532</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C48" t="n">
         <v>46</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>3</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>7</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>face cream / face moisturizer
 Bean cream from @Mixsoon US Official
 #mixsoon #koreanskincare</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>9.210526315789473</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>8.646616541353383</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.5639097744360901</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L48" t="n">
         <v>1.31578947368421</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7461883983475854597</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B49" t="n">
         <v>544</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C49" t="n">
         <v>26</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D49" t="n">
         <v>6</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Fenty Beauty Diamond Bomb highlighter in How many carats? @Fenty Beauty
 #fentybeauty #fentybeautyhighlighter</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H49" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I49" t="n">
         <v>4.779411764705882</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.102941176470588</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7460066373889215749</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B50" t="n">
         <v>592</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C50" t="n">
         <v>34</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D50" t="n">
         <v>4</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>how to get perfect base makeup / skin prep for glowy skin
 products used @Mixsoon US Official
 #mixsoon</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H50" t="n">
         <v>6.418918918918918</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I50" t="n">
         <v>5.743243243243244</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.6756756756756757</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L50" t="n">
         <v>0.5067567567567568</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@baeribir/video/7459814706631560454</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
         <v>2479</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C51" t="n">
         <v>36</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>8</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>4</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Mixsoon bean essence how to use exfoliating @Mixsoon US Official
 #mixsoon #koreanskincare</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>1.774909237595805</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>1.45219846712384</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.3227107704719645</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>0.1613553852359823</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@baeribir/video/7459677435076857094</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>748</v>
-      </c>
-      <c r="C50" t="n">
-        <v>37</v>
-      </c>
-      <c r="D50" t="n">
-        <v>13</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Hydrogel mask before and after from @Mixsoon US Official
-#skintok #kbeauty #kbeautytok #hydrogelmask</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6.684491978609626</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.946524064171124</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.737967914438503</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.53475935828877</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
